--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F26E44-5DF0-4103-B4E2-EEB913E47576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>5-fold pearson correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-fold spearman correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthogonality of disentanglement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β-VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank-VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.03±0.617 / 5.32±0.517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconstruction quality (training/testing) (times 10^(-3))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.28±0.264 / 2.84±0.412</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.996± 0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.998±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLS correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21±0.297 / 4.50±0.227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.177±0.285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.196±0.316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.221±0.031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0±0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,13 +423,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F26E44-5DF0-4103-B4E2-EEB913E47576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156FF92-1A8D-449F-9E55-AD7CDF18C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>5-fold pearson correlation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLS correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.21±0.297 / 4.50±0.227</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,14 @@
   </si>
   <si>
     <t>0.0±0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.921±0.043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLS R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -475,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -489,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -497,13 +501,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -514,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156FF92-1A8D-449F-9E55-AD7CDF18C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D7D08-82F8-4ED7-A268-4E61A6A5ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>5-fold pearson correlation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,22 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.21±0.297 / 4.50±0.227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.177±0.285</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.196±0.316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.221±0.031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0±0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +87,42 @@
   </si>
   <si>
     <t>PLS R^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.99±0.149 / 4.15±0.480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.663±0.198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.721±0.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.033±0.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.926±0.290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19±0.290 / 4.85±0.557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.984±0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.996±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001±0.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +451,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +459,7 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +485,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -479,7 +502,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -493,7 +519,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -501,16 +530,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -521,13 +553,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D7D08-82F8-4ED7-A268-4E61A6A5ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874FC87-1B81-4B67-B520-A2A206B0FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>5-fold pearson correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-fold spearman correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Orthogonality of disentanglement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,51 +70,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0±0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.921±0.043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLS R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.99±0.149 / 4.15±0.480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.663±0.198</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.721±0.230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.033±0.015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.926±0.290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.19±0.290 / 4.85±0.557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.984±0.002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.996±0.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.001±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23±0.271 / 4.46±0.927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.985±0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002±0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearson correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spearman correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.97±0.161 / 4.24±0.422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.753±0.074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.829±0.067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.031±0.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05±0.135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.320±0.108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future prediction reconstruction quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riem-VAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,119 +459,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="2" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874FC87-1B81-4B67-B520-A2A206B0FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB605D8-5FB7-46D2-834A-1ABC8E5725F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Orthogonality of disentanglement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>Riem-VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,12 +474,14 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -490,10 +496,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -507,11 +516,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -525,11 +535,12 @@
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -543,11 +554,12 @@
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -561,11 +573,12 @@
         <v>16</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,11 +592,12 @@
         <v>8</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -592,6 +606,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB605D8-5FB7-46D2-834A-1ABC8E5725F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DE9E4-9367-46A6-B3C9-C3FC25ABF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Orthogonality of disentanglement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,86 +55,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.996± 0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.998±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLS R^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.996±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001±0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23±0.271 / 4.46±0.927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.985±0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002±0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearson correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spearman correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.97±0.161 / 4.24±0.422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.753±0.074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.829±0.067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.031±0.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05±0.135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.320±0.108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future prediction reconstruction quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riem-VAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.28±0.264 / 2.84±0.412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.85±0.711 / 3.83±0.930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.944±0.026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.943±0.027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.996± 0.002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.998±0.000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLS R^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.996±0.000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.001±0.000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.23±0.271 / 4.46±0.927</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.985±0.002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.002±0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pearson correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spearman correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.97±0.161 / 4.24±0.422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.753±0.074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.829±0.067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.031±0.015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.05±0.135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.320±0.108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future prediction reconstruction quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riem-VAE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LNE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +483,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,8 +491,8 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
@@ -493,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -510,72 +527,80 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -583,23 +608,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DE9E4-9367-46A6-B3C9-C3FC25ABF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632DA8B3-5DC3-4726-805B-6902F5A47349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Orthogonality of disentanglement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Future prediction reconstruction quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Riem-VAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,38 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future prediction error (times 10^(-3)) (50% missing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future prediction error (times 10^(-3)) (70% missing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.52±0.443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.92±0.616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future prediction error (times 10^(-3)) (60% missing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.61±0.504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.167±0.149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.163±0.146</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -534,10 +562,10 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -545,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -555,7 +583,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -566,7 +594,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -576,7 +604,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -597,7 +625,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>23</v>
@@ -618,7 +646,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -626,14 +654,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632DA8B3-5DC3-4726-805B-6902F5A47349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1E6FF-66A0-4401-8AE2-FE893BA54096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -546,8 +546,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,8 +568,9 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -588,8 +590,9 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -609,8 +612,9 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -630,8 +634,9 @@
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,30 +656,49 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmo\Desktop\CFA\FYP\Deep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1E6FF-66A0-4401-8AE2-FE893BA54096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D58EB-7847-4E26-8DE4-AB9347AC8B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Orthogonality of disentanglement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLS R^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.996±0.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.002±0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pearson correlation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,18 +103,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.031±0.015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.05±0.135</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.320±0.108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Riem-VAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +164,22 @@
   </si>
   <si>
     <t>0.163±0.146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.06±0.485 / 3.56±0.853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.910±0.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.907±0.108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -556,36 +556,40 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -594,20 +598,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -616,45 +622,39 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -668,13 +668,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -682,23 +682,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
